--- a/week1/library.xlsx
+++ b/week1/library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8299614b0b0b5a34/Documents/BYU-Idaho/TA/ITM 220-SQL/clarkprep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8299614b0b0b5a34/Documents/BYU-Idaho/TA/ITM 220-SQL/new_itm220/github/millerstudentw25/week1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC104854119F4D9A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C67A329F-5B9F-4C52-9922-918681207BDD}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC104854119F4D9A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59D554A-1A9A-4DED-938A-203A49D45D43}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,12 +537,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -640,7 +644,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -822,7 +826,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
